--- a/CornerDigitalExample.xlsx
+++ b/CornerDigitalExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLAUDIA\Desktop\DavidC\vsprojects\PhotoManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60EFF591-B660-4FD2-BFA4-BDB1094C5BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1BB88B-720C-4FD7-8372-9B1211D04E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="240" windowWidth="22716" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accesorios" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="390">
   <si>
     <t>product_type</t>
   </si>
@@ -1367,6 +1367,12 @@
   </si>
   <si>
     <t>Limpiar con un paño húmedo</t>
+  </si>
+  <si>
+    <t>M6000-608</t>
+  </si>
+  <si>
+    <t>M3600-Y35</t>
   </si>
 </sst>
 </file>
@@ -2470,9 +2476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JD19"/>
+  <dimension ref="A1:JD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9342,6 +9350,16 @@
         <v>100</v>
       </c>
     </row>
+    <row r="20" spans="1:264" x14ac:dyDescent="0.35">
+      <c r="E20" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:264" x14ac:dyDescent="0.35">
+      <c r="E21" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">

--- a/CornerDigitalExample.xlsx
+++ b/CornerDigitalExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLAUDIA\Desktop\DavidC\vsprojects\PhotoManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1BB88B-720C-4FD7-8372-9B1211D04E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB52F7-C713-4175-9757-1BD725A5AB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="240" windowWidth="22716" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accesorios" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="391">
   <si>
     <t>product_type</t>
   </si>
@@ -1373,6 +1373,9 @@
   </si>
   <si>
     <t>M3600-Y35</t>
+  </si>
+  <si>
+    <t>M3600-Z92</t>
   </si>
 </sst>
 </file>
@@ -2476,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JD21"/>
+  <dimension ref="A1:JD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -9360,6 +9363,11 @@
         <v>389</v>
       </c>
     </row>
+    <row r="22" spans="1:264" x14ac:dyDescent="0.35">
+      <c r="E22" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
